--- a/JobTracker.xlsx
+++ b/JobTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NiceTry5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EC456B-A24D-4D26-BFC0-D570F8BC8DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D421AE13-5A7E-4DAD-8FBF-4A8D8F3FCBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="1710" windowWidth="15375" windowHeight="7875" xr2:uid="{CAF93570-D2B5-41F7-A7B6-DF19D9ED8576}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t xml:space="preserve">JobTracker </t>
   </si>
@@ -84,13 +84,43 @@
   </si>
   <si>
     <t xml:space="preserve">Applied through Resume Library </t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>resume used</t>
+  </si>
+  <si>
+    <t>Application link</t>
+  </si>
+  <si>
+    <t>https://careers.microsoft.com/us/en/job/738656/Data-Center-Technician</t>
+  </si>
+  <si>
+    <t>https://github.com/Ffox0510/Resume</t>
+  </si>
+  <si>
+    <t>Z networks</t>
+  </si>
+  <si>
+    <t>https://znetworks.com/careers?submit=app</t>
+  </si>
+  <si>
+    <t>https://www.ampmservice.com/CareerDetail/Customer%20Helpdesk%20Representative%20/Auburn/WA</t>
+  </si>
+  <si>
+    <t>AM/PM</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +131,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,15 +161,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,18 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E02A39-8E00-4B4D-9670-E33E6051EA7F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +518,14 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -489,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -506,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -520,18 +570,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>43772</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -545,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -556,8 +609,65 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43794</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43795</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43795</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{6DA81142-28D6-41C4-A32E-6408C7A17C0B}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{8CE88D47-8CFA-4732-ACD6-F0164E3B66AD}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{5FD87796-7F08-4CA1-8207-906066CD3A73}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{8A057DA8-1D7D-44AA-AFB8-68797274159E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>